--- a/biology/Botanique/Maba_kamerunensis/Maba_kamerunensis.xlsx
+++ b/biology/Botanique/Maba_kamerunensis/Maba_kamerunensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maba kamerunensis est une espèce de plante à fleurs de la famille des Ebenaceae[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maba kamerunensis est une espèce de plante à fleurs de la famille des Ebenaceae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste qui peut atteindre 15 mètres de haut et 30 cm de diamètre[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste qui peut atteindre 15 mètres de haut et 30 cm de diamètre.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quelques spécimens de cet arbuste ont été signalés en Guinée équatoriale[5] ainsi qu’au Cameroun[6], au Gabon, en Angola, au Congo et en Rhodésie[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quelques spécimens de cet arbuste ont été signalés en Guinée équatoriale ainsi qu’au Cameroun, au Gabon, en Angola, au Congo et en Rhodésie.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est récolté pour un usage local en tant que médicament. Les feuilles sèches sont transformées  en poudre et sont reniflées par les narines pour traiter le mal de tête persistant. Les feuilles sont utilisées dans le traitement des plaies[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est récolté pour un usage local en tant que médicament. Les feuilles sèches sont transformées  en poudre et sont reniflées par les narines pour traiter le mal de tête persistant. Les feuilles sont utilisées dans le traitement des plaies.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (8 août 2017)[9] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (8 août 2017) :
 sous-espèce Diospyros hoyleana subsp. angustifolia
 sous-espèce Diospyros hoyleana subsp. hoyleana</t>
         </is>
